--- a/data/industry/DRAM.xlsx
+++ b/data/industry/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56451DAC-4E3A-4ED2-BC43-7FD944F1D96F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC751709-4AB2-B54F-921B-7CBD71AF4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14960" yWindow="2620" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -239,23 +239,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -311,11 +312,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -332,26 +333,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,28 +638,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22904F78-1984-4AE6-95B0-F134CF800348}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -725,9 +732,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
       <c r="E2" s="10" t="s">
@@ -794,11 +801,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:25">
+      <c r="A3" s="15">
         <v>46044</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="15">
         <v>46044</v>
       </c>
       <c r="C3" s="8">
@@ -871,11 +878,11 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:25">
+      <c r="A4" s="15">
         <v>46045</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="15">
         <v>46045</v>
       </c>
       <c r="C4" s="8">
@@ -948,11 +955,11 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:25">
+      <c r="A5" s="15">
         <v>46045</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>46045</v>
       </c>
       <c r="C5" s="8">
@@ -1025,11 +1032,11 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:25">
+      <c r="A6" s="15">
         <v>46045</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>46045</v>
       </c>
       <c r="C6" s="8">
@@ -1037,6 +1044,69 @@
       </c>
       <c r="D6" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E6" s="11">
+        <v>55</v>
+      </c>
+      <c r="F6" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>36.667000000000002</v>
+      </c>
+      <c r="H6" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="I6" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>92</v>
+      </c>
+      <c r="L6" s="11">
+        <v>26</v>
+      </c>
+      <c r="M6" s="11">
+        <v>78.75</v>
+      </c>
+      <c r="N6" s="11">
+        <v>13.7</v>
+      </c>
+      <c r="O6" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="P6" s="11">
+        <v>12.775</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>45</v>
+      </c>
+      <c r="R6" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S6" s="11">
+        <v>30.7</v>
+      </c>
+      <c r="T6" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U6" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V6" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W6" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="X6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>5.0250000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1062,17 +1132,17 @@
       <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="5" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -1161,7 +1231,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1242,7 +1312,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -1331,7 +1401,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="E4" s="10"/>
@@ -1368,7 +1438,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -1395,17 +1465,17 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -1458,7 +1528,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1503,7 +1573,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -1556,7 +1626,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="E4" s="10"/>
@@ -1581,7 +1651,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -1608,18 +1678,18 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -1666,7 +1736,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1705,7 +1775,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -1752,7 +1822,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="E4" s="10"/>
@@ -1777,7 +1847,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -1801,15 +1871,15 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1820,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1834,7 +1904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -1843,7 +1913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -1852,7 +1922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -1861,7 +1931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -1870,7 +1940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -1879,7 +1949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -1888,7 +1958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1897,49 +1967,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +2020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1959,7 +2029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -1968,7 +2038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1979,7 +2049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1988,7 +2058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1997,42 +2067,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2041,35 +2111,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>
